--- a/EU Exit PPP Regulation Service/Data/Config.xlsx
+++ b/EU Exit PPP Regulation Service/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1006990\Downloads\EU Exit PPP Regulation Service\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1006990\Downloads\EU-Exit-PPP-Regulation-Service\EU Exit PPP Regulation Service\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E8B8E1-B8CE-4131-B736-C2A477C1FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF13F867-AB2D-450F-B29D-3508787DBCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>User Email Subfolder</t>
   </si>
   <si>
-    <t>Attachments Folder</t>
-  </si>
-  <si>
     <t>Phase 1 Reg English</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Defra Root/EU Exit PPP Regulation Service</t>
+  </si>
+  <si>
+    <t>Working Folder</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -272,6 +272,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B196"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="G14" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,7 +755,7 @@
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -816,12 +819,12 @@
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -829,7 +832,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -837,15 +840,15 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -885,11 +888,11 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>42</v>
+      <c r="A27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1563,10 +1566,6 @@
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="12"/>
       <c r="B195" s="11"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="12"/>
-      <c r="B196" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1778,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/EU Exit PPP Regulation Service/Data/Config.xlsx
+++ b/EU Exit PPP Regulation Service/Data/Config.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1006990\Downloads\EU-Exit-PPP-Regulation-Service\EU Exit PPP Regulation Service\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF13F867-AB2D-450F-B29D-3508787DBCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF5DBA-2AA7-4875-8744-65C471E8A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
-    <sheet name="Rows to Re Add" sheetId="3" r:id="rId2"/>
-    <sheet name="Local Config" sheetId="2" r:id="rId3"/>
+    <sheet name="Local Config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -159,6 +158,18 @@
   </si>
   <si>
     <t>Working Folder</t>
+  </si>
+  <si>
+    <t>Email Template Folder</t>
+  </si>
+  <si>
+    <t>Email Phase 1 Folder</t>
+  </si>
+  <si>
+    <t>Email Exception Response Folder</t>
+  </si>
+  <si>
+    <t>Email Partial Folder</t>
   </si>
 </sst>
 </file>
@@ -208,18 +219,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -235,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -254,9 +259,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -350,7 +352,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B32" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Value" dataDxfId="4"/>
@@ -666,15 +668,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G13:G14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="69" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9.1796875" style="3"/>
   </cols>
@@ -688,10 +690,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -729,843 +731,879 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11"/>
-    </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="12"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="12"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="12"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="12"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="12"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="12"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="10"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="12"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="12"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="10"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="12"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="12"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="10"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="12"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="10"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="12"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="12"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="12"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="10"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="12"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="10"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="12"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="10"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="12"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="10"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="12"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="10"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="10"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="12"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="10"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="12"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="10"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="12"/>
-      <c r="B69" s="11"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="10"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="12"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="10"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="12"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="10"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="12"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="10"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="12"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="10"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="12"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="10"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="12"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="10"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="12"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="10"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="12"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="10"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="12"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="12"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="10"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="12"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="10"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="12"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="10"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="12"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="10"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="12"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="10"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="12"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="12"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="10"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="12"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="12"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="12"/>
-      <c r="B88" s="11"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="12"/>
-      <c r="B89" s="11"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="10"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="12"/>
-      <c r="B90" s="11"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="10"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="12"/>
-      <c r="B91" s="11"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="10"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="12"/>
-      <c r="B92" s="11"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="10"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="12"/>
-      <c r="B93" s="11"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="10"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="12"/>
-      <c r="B94" s="11"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="10"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="12"/>
-      <c r="B95" s="11"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="10"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="12"/>
-      <c r="B96" s="11"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="10"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="12"/>
-      <c r="B97" s="11"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="10"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="12"/>
-      <c r="B98" s="11"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="10"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="12"/>
-      <c r="B99" s="11"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="12"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="10"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="12"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="10"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="12"/>
-      <c r="B102" s="11"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="10"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="12"/>
-      <c r="B103" s="11"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="10"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="12"/>
-      <c r="B104" s="11"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="10"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="12"/>
-      <c r="B105" s="11"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="10"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="12"/>
-      <c r="B106" s="11"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="10"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="12"/>
-      <c r="B107" s="11"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="10"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="12"/>
-      <c r="B108" s="11"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="10"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="12"/>
-      <c r="B109" s="11"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="10"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="12"/>
-      <c r="B110" s="11"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="10"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="12"/>
-      <c r="B111" s="11"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="10"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="12"/>
-      <c r="B112" s="11"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="10"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="12"/>
-      <c r="B113" s="11"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="10"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="12"/>
-      <c r="B114" s="11"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="10"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="12"/>
-      <c r="B115" s="11"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="10"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="12"/>
-      <c r="B116" s="11"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="10"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="12"/>
-      <c r="B117" s="11"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="10"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="12"/>
-      <c r="B118" s="11"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="10"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="12"/>
-      <c r="B119" s="11"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="10"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="12"/>
-      <c r="B120" s="11"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="10"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="12"/>
-      <c r="B121" s="11"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="10"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="12"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="10"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="12"/>
-      <c r="B123" s="11"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="10"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="12"/>
-      <c r="B124" s="11"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="10"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="12"/>
-      <c r="B125" s="11"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="10"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="12"/>
-      <c r="B126" s="11"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="10"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="12"/>
-      <c r="B127" s="11"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="10"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="12"/>
-      <c r="B128" s="11"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="10"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="12"/>
-      <c r="B129" s="11"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="10"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="12"/>
-      <c r="B130" s="11"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="10"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="12"/>
-      <c r="B131" s="11"/>
+      <c r="A131" s="11"/>
+      <c r="B131" s="10"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="12"/>
-      <c r="B132" s="11"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="10"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="12"/>
-      <c r="B133" s="11"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="10"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="12"/>
-      <c r="B134" s="11"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="10"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="12"/>
-      <c r="B135" s="11"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="10"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="12"/>
-      <c r="B136" s="11"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="10"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="12"/>
-      <c r="B137" s="11"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="10"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="12"/>
-      <c r="B138" s="11"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="10"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="12"/>
-      <c r="B139" s="11"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="10"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="12"/>
-      <c r="B140" s="11"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="10"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="12"/>
-      <c r="B141" s="11"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="10"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="12"/>
-      <c r="B142" s="11"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="10"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="12"/>
-      <c r="B143" s="11"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="10"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="12"/>
-      <c r="B144" s="11"/>
+      <c r="A144" s="11"/>
+      <c r="B144" s="10"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="12"/>
-      <c r="B145" s="11"/>
+      <c r="A145" s="11"/>
+      <c r="B145" s="10"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="12"/>
-      <c r="B146" s="11"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="10"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="12"/>
-      <c r="B147" s="11"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="10"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="12"/>
-      <c r="B148" s="11"/>
+      <c r="A148" s="11"/>
+      <c r="B148" s="10"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="12"/>
-      <c r="B149" s="11"/>
+      <c r="A149" s="11"/>
+      <c r="B149" s="10"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="12"/>
-      <c r="B150" s="11"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="10"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="12"/>
-      <c r="B151" s="11"/>
+      <c r="A151" s="11"/>
+      <c r="B151" s="10"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="12"/>
-      <c r="B152" s="11"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="10"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="12"/>
-      <c r="B153" s="11"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="10"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="12"/>
-      <c r="B154" s="11"/>
+      <c r="A154" s="11"/>
+      <c r="B154" s="10"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="12"/>
-      <c r="B155" s="11"/>
+      <c r="A155" s="11"/>
+      <c r="B155" s="10"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="12"/>
-      <c r="B156" s="11"/>
+      <c r="A156" s="11"/>
+      <c r="B156" s="10"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="12"/>
-      <c r="B157" s="11"/>
+      <c r="A157" s="11"/>
+      <c r="B157" s="10"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="12"/>
-      <c r="B158" s="11"/>
+      <c r="A158" s="11"/>
+      <c r="B158" s="10"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="12"/>
-      <c r="B159" s="11"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="10"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="12"/>
-      <c r="B160" s="11"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="10"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="12"/>
-      <c r="B161" s="11"/>
+      <c r="A161" s="11"/>
+      <c r="B161" s="10"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="12"/>
-      <c r="B162" s="11"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="10"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="12"/>
-      <c r="B163" s="11"/>
+      <c r="A163" s="11"/>
+      <c r="B163" s="10"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="12"/>
-      <c r="B164" s="11"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="10"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="12"/>
-      <c r="B165" s="11"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="10"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="12"/>
-      <c r="B166" s="11"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="10"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="12"/>
-      <c r="B167" s="11"/>
+      <c r="A167" s="11"/>
+      <c r="B167" s="10"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="12"/>
-      <c r="B168" s="11"/>
+      <c r="A168" s="11"/>
+      <c r="B168" s="10"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="12"/>
-      <c r="B169" s="11"/>
+      <c r="A169" s="11"/>
+      <c r="B169" s="10"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="12"/>
-      <c r="B170" s="11"/>
+      <c r="A170" s="11"/>
+      <c r="B170" s="10"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="12"/>
-      <c r="B171" s="11"/>
+      <c r="A171" s="11"/>
+      <c r="B171" s="10"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="12"/>
-      <c r="B172" s="11"/>
+      <c r="A172" s="11"/>
+      <c r="B172" s="10"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="12"/>
-      <c r="B173" s="11"/>
+      <c r="A173" s="11"/>
+      <c r="B173" s="10"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="12"/>
-      <c r="B174" s="11"/>
+      <c r="A174" s="11"/>
+      <c r="B174" s="10"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="12"/>
-      <c r="B175" s="11"/>
+      <c r="A175" s="11"/>
+      <c r="B175" s="10"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="12"/>
-      <c r="B176" s="11"/>
+      <c r="A176" s="11"/>
+      <c r="B176" s="10"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="12"/>
-      <c r="B177" s="11"/>
+      <c r="A177" s="11"/>
+      <c r="B177" s="10"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="12"/>
-      <c r="B178" s="11"/>
+      <c r="A178" s="11"/>
+      <c r="B178" s="10"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="12"/>
-      <c r="B179" s="11"/>
+      <c r="A179" s="11"/>
+      <c r="B179" s="10"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="12"/>
-      <c r="B180" s="11"/>
+      <c r="A180" s="11"/>
+      <c r="B180" s="10"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="12"/>
-      <c r="B181" s="11"/>
+      <c r="A181" s="11"/>
+      <c r="B181" s="10"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="12"/>
-      <c r="B182" s="11"/>
+      <c r="A182" s="11"/>
+      <c r="B182" s="10"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="12"/>
-      <c r="B183" s="11"/>
+      <c r="A183" s="11"/>
+      <c r="B183" s="10"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="12"/>
-      <c r="B184" s="11"/>
+      <c r="A184" s="11"/>
+      <c r="B184" s="10"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="12"/>
-      <c r="B185" s="11"/>
+      <c r="A185" s="11"/>
+      <c r="B185" s="10"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="12"/>
-      <c r="B186" s="11"/>
+      <c r="A186" s="11"/>
+      <c r="B186" s="10"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="12"/>
-      <c r="B187" s="11"/>
+      <c r="A187" s="11"/>
+      <c r="B187" s="10"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="12"/>
-      <c r="B188" s="11"/>
+      <c r="A188" s="11"/>
+      <c r="B188" s="10"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="12"/>
-      <c r="B189" s="11"/>
+      <c r="A189" s="11"/>
+      <c r="B189" s="10"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="12"/>
-      <c r="B190" s="11"/>
+      <c r="A190" s="11"/>
+      <c r="B190" s="10"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="12"/>
-      <c r="B191" s="11"/>
+      <c r="A191" s="11"/>
+      <c r="B191" s="10"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="12"/>
-      <c r="B192" s="11"/>
+      <c r="A192" s="11"/>
+      <c r="B192" s="10"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="12"/>
-      <c r="B193" s="11"/>
+      <c r="A193" s="11"/>
+      <c r="B193" s="10"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="12"/>
-      <c r="B194" s="11"/>
+      <c r="A194" s="11"/>
+      <c r="B194" s="10"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="12"/>
-      <c r="B195" s="11"/>
+      <c r="A195" s="11"/>
+      <c r="B195" s="10"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="11"/>
+      <c r="B196" s="10"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="11"/>
+      <c r="B197" s="10"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="11"/>
+      <c r="B198" s="10"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="11"/>
+      <c r="B199" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1578,73 +1616,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F217591-B77C-40DF-BDF5-47CA978233E1}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1773,10 +1744,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1794,6 +1765,68 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <cf401361b24e474cb011be6eb76c0e76 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Crown</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">69589897-2828-4761-976e-717fd8e631c9</TermId>
+        </TermInfo>
+      </Terms>
+    </cf401361b24e474cb011be6eb76c0e76>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <k85d23755b3a46b5a51451cf336b2e9b xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </k85d23755b3a46b5a51451cf336b2e9b>
+    <Topic xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">Work Packages</Topic>
+    <HOMigrated xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">false</HOMigrated>
+    <ddeb1fd0a9ad4436a96525d34737dc44 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Defra Group</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0867f7b3-e76e-40ca-bb1f-5ba341a49230</TermId>
+        </TermInfo>
+      </Terms>
+    </ddeb1fd0a9ad4436a96525d34737dc44>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lae2bfa7b6474897ab4a53f76ea236c7 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Official</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">14c80daa-741b-422c-9722-f71693c9ede4</TermId>
+        </TermInfo>
+      </Terms>
+    </lae2bfa7b6474897ab4a53f76ea236c7>
+    <TaxCatchAll xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Value>10</Value>
+      <Value>9</Value>
+      <Value>8</Value>
+      <Value>7</Value>
+      <Value>6</Value>
+    </TaxCatchAll>
+    <fe59e9859d6a491389c5b03567f5dda5 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">DDTS</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4b496496-8422-4e09-ae59-802e7f67f771</TermId>
+        </TermInfo>
+      </Terms>
+    </fe59e9859d6a491389c5b03567f5dda5>
+    <Team xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">Digital Robotic Automation</Team>
+    <n7493b4506bf40e28c373b1e51a33445 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Community</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">144ac7d7-0b9a-42f9-9385-2935294b6de3</TermId>
+        </TermInfo>
+      </Terms>
+    </n7493b4506bf40e28c373b1e51a33445>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1802,12 +1835,12 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="d1117845-93f6-4da3-abaa-fcb4fa669c78" ContentTypeId="0x010100A5BF1C78D9F64B679A5EBDE1C6598EBC01" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Defra document" ma:contentTypeID="0x010100A5BF1C78D9F64B679A5EBDE1C6598EBC0100040CE0A563279642A4E4F2E84657AA5A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="966060d0038f22014d5f48f1d075f2b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="662745e8-e224-48e8-a2e3-254862b8c2f5" xmlns:ns3="97f96670-c786-4b18-bf2a-32c7cc01b520" xmlns:ns4="a1cc53fe-b63d-4766-a5c8-95c307055b81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="941117f54ba4546450a8d66256a0d267" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2110,69 +2143,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <cf401361b24e474cb011be6eb76c0e76 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Crown</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">69589897-2828-4761-976e-717fd8e631c9</TermId>
-        </TermInfo>
-      </Terms>
-    </cf401361b24e474cb011be6eb76c0e76>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <k85d23755b3a46b5a51451cf336b2e9b xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </k85d23755b3a46b5a51451cf336b2e9b>
-    <Topic xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">Work Packages</Topic>
-    <HOMigrated xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">false</HOMigrated>
-    <ddeb1fd0a9ad4436a96525d34737dc44 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal Defra Group</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0867f7b3-e76e-40ca-bb1f-5ba341a49230</TermId>
-        </TermInfo>
-      </Terms>
-    </ddeb1fd0a9ad4436a96525d34737dc44>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lae2bfa7b6474897ab4a53f76ea236c7 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Official</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">14c80daa-741b-422c-9722-f71693c9ede4</TermId>
-        </TermInfo>
-      </Terms>
-    </lae2bfa7b6474897ab4a53f76ea236c7>
-    <TaxCatchAll xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Value>10</Value>
-      <Value>9</Value>
-      <Value>8</Value>
-      <Value>7</Value>
-      <Value>6</Value>
-    </TaxCatchAll>
-    <fe59e9859d6a491389c5b03567f5dda5 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">DDTS</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">4b496496-8422-4e09-ae59-802e7f67f771</TermId>
-        </TermInfo>
-      </Terms>
-    </fe59e9859d6a491389c5b03567f5dda5>
-    <Team xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">Digital Robotic Automation</Team>
-    <n7493b4506bf40e28c373b1e51a33445 xmlns="662745e8-e224-48e8-a2e3-254862b8c2f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Community</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">144ac7d7-0b9a-42f9-9385-2935294b6de3</TermId>
-        </TermInfo>
-      </Terms>
-    </n7493b4506bf40e28c373b1e51a33445>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{027021F3-0F57-4E32-99BF-C0FBFED6175E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a1cc53fe-b63d-4766-a5c8-95c307055b81"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="97f96670-c786-4b18-bf2a-32c7cc01b520"/>
+    <ds:schemaRef ds:uri="662745e8-e224-48e8-a2e3-254862b8c2f5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FFFE261-B0AE-4C8C-BD33-2EE90BE3D489}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2180,7 +2170,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6890D74-70F3-4A90-9D5B-EBE10390DAD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -2188,7 +2178,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B0C1FC-292C-435A-97DB-4855EBBBAAB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2207,23 +2197,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{027021F3-0F57-4E32-99BF-C0FBFED6175E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a1cc53fe-b63d-4766-a5c8-95c307055b81"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="97f96670-c786-4b18-bf2a-32c7cc01b520"/>
-    <ds:schemaRef ds:uri="662745e8-e224-48e8-a2e3-254862b8c2f5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/EU Exit PPP Regulation Service/Data/Config.xlsx
+++ b/EU Exit PPP Regulation Service/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1006990\Downloads\EU-Exit-PPP-Regulation-Service\EU Exit PPP Regulation Service\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1006990\Downloads\EU-Exit-PPP-Regulation-Service\EU Exit PPP Regulation Service\EU Exit PPP Regulation Service\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF5DBA-2AA7-4875-8744-65C471E8A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B06F4-A791-4B50-9CC5-B13C82B4E864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="850" windowWidth="14400" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -127,33 +127,6 @@
     <t>Phase 2 Update Welsh</t>
   </si>
   <si>
-    <t>PPP Robot Link</t>
-  </si>
-  <si>
-    <t>SharePoint Archive Pathway</t>
-  </si>
-  <si>
-    <t>SharePoint Archive URL</t>
-  </si>
-  <si>
-    <t>SharePoint Master File Name</t>
-  </si>
-  <si>
-    <t>SharePoint Master Title</t>
-  </si>
-  <si>
-    <t>SharePoint Master URL</t>
-  </si>
-  <si>
-    <t>SharePoint Weekly File Name</t>
-  </si>
-  <si>
-    <t>SharePoint Weekly Title</t>
-  </si>
-  <si>
-    <t>SharePoint Weekly URL</t>
-  </si>
-  <si>
     <t>Defra Root/EU Exit PPP Regulation Service</t>
   </si>
   <si>
@@ -170,13 +143,64 @@
   </si>
   <si>
     <t>Email Partial Folder</t>
+  </si>
+  <si>
+    <t>Pausepoint 6</t>
+  </si>
+  <si>
+    <t>Master Last Updated</t>
+  </si>
+  <si>
+    <t>Sharepoint URL</t>
+  </si>
+  <si>
+    <t>Sharepoint Weekly Folder</t>
+  </si>
+  <si>
+    <t>Sharepoint Weekly File URL</t>
+  </si>
+  <si>
+    <t>Sharepoint Master File URL</t>
+  </si>
+  <si>
+    <t>Sharepoint Master File Name</t>
+  </si>
+  <si>
+    <t>Sharepoint Weekly File Name</t>
+  </si>
+  <si>
+    <t>Sharepoint Archive URL</t>
+  </si>
+  <si>
+    <t>OCR Phase 2 Consolidated Master List of Operators</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>OCR%20Phase%202%20Registrations/Weekly%20Lists/Archive</t>
+  </si>
+  <si>
+    <t>https://defra.sharepoint.com/teams/Team430</t>
+  </si>
+  <si>
+    <t>OCR%20Phase%202%20Registrations/Weekly%20Lists</t>
+  </si>
+  <si>
+    <t>OCR%20Phase%202%20Registrations/Weekly%20Lists/OCR%20Phase%202%20Consolidated%20Weekly%20List%20of%20Operators%20</t>
+  </si>
+  <si>
+    <t>OCR%20Phase%202%20Registrations/Master%20Lists/OCR%20Phase%202%20Consolidated%20Master%20List%20of%20Operators.xlsx</t>
+  </si>
+  <si>
+    <t>OCR Phase 2 Consolidated Weekly List of Operators</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +242,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -278,12 +315,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -352,20 +401,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B32" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Value" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C37" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Value" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{20F024D5-B2DA-4C7A-B95F-95CD22DE9F21}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table16" displayName="Table16" ref="A1:B15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table16" displayName="Table16" ref="A1:B15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Value" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -668,28 +718,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="69" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="3"/>
+    <col min="2" max="2" width="31.90625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -697,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -705,7 +759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -713,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -721,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -729,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -745,31 +799,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -777,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -785,7 +839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -793,7 +847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -801,7 +855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -809,7 +863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -817,7 +871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -825,7 +879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -833,7 +887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -841,7 +895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -849,113 +903,154 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B30" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B31" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
@@ -1600,10 +1695,6 @@
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="11"/>
       <c r="B198" s="10"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="11"/>
-      <c r="B199" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1748,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
